--- a/reports/_MAERSK BANGLADESH LTD._ISPAHANI SUMMIT ALLIANCE TERMINALS LIMITED_container_report_2018-12-27_1_.xlsx
+++ b/reports/_MAERSK BANGLADESH LTD._ISPAHANI SUMMIT ALLIANCE TERMINALS LIMITED_container_report_2018-12-27_1_.xlsx
@@ -2712,11 +2712,11 @@
         <v>21</v>
       </c>
       <c r="Q14" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R14" s="0" t="inlineStr">
         <is>
-          <t>Empty</t>
+          <t>Laden</t>
         </is>
       </c>
       <c r="S14" s="0"/>
@@ -2828,11 +2828,11 @@
         <v>21</v>
       </c>
       <c r="Q15" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R15" s="0" t="inlineStr">
         <is>
-          <t>Empty</t>
+          <t>Laden</t>
         </is>
       </c>
       <c r="S15" s="0"/>
@@ -3350,11 +3350,11 @@
         <v>20</v>
       </c>
       <c r="Q21" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R21" s="0" t="inlineStr">
         <is>
-          <t>Empty</t>
+          <t>Laden</t>
         </is>
       </c>
       <c r="S21" s="0"/>
@@ -4080,11 +4080,11 @@
         <v>20</v>
       </c>
       <c r="Q30" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R30" s="0" t="inlineStr">
         <is>
-          <t>Empty</t>
+          <t>Laden</t>
         </is>
       </c>
       <c r="S30" s="0"/>
@@ -4834,11 +4834,11 @@
         <v>20</v>
       </c>
       <c r="Q39" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R39" s="0" t="inlineStr">
         <is>
-          <t>Empty</t>
+          <t>Laden</t>
         </is>
       </c>
       <c r="S39" s="0"/>
@@ -5182,11 +5182,11 @@
         <v>19</v>
       </c>
       <c r="Q42" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R42" s="0" t="inlineStr">
         <is>
-          <t>Empty</t>
+          <t>Laden</t>
         </is>
       </c>
       <c r="S42" s="0"/>
@@ -5274,11 +5274,11 @@
         <v>19</v>
       </c>
       <c r="Q43" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R43" s="0" t="inlineStr">
         <is>
-          <t>Empty</t>
+          <t>Laden</t>
         </is>
       </c>
       <c r="S43" s="0"/>
@@ -5888,11 +5888,11 @@
         <v>18</v>
       </c>
       <c r="Q50" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R50" s="0" t="inlineStr">
         <is>
-          <t>Empty</t>
+          <t>Laden</t>
         </is>
       </c>
       <c r="S50" s="0"/>
@@ -6120,11 +6120,11 @@
         <v>18</v>
       </c>
       <c r="Q52" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R52" s="0" t="inlineStr">
         <is>
-          <t>Empty</t>
+          <t>Laden</t>
         </is>
       </c>
       <c r="S52" s="0"/>
@@ -6294,11 +6294,11 @@
         <v>18</v>
       </c>
       <c r="Q54" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R54" s="0" t="inlineStr">
         <is>
-          <t>Empty</t>
+          <t>Laden</t>
         </is>
       </c>
       <c r="S54" s="0"/>
@@ -6526,11 +6526,11 @@
         <v>18</v>
       </c>
       <c r="Q56" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R56" s="0" t="inlineStr">
         <is>
-          <t>Empty</t>
+          <t>Laden</t>
         </is>
       </c>
       <c r="S56" s="0"/>
@@ -6758,11 +6758,11 @@
         <v>18</v>
       </c>
       <c r="Q59" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R59" s="0" t="inlineStr">
         <is>
-          <t>Empty</t>
+          <t>Laden</t>
         </is>
       </c>
       <c r="S59" s="0"/>
@@ -6874,11 +6874,11 @@
         <v>18</v>
       </c>
       <c r="Q60" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R60" s="0" t="inlineStr">
         <is>
-          <t>Empty</t>
+          <t>Laden</t>
         </is>
       </c>
       <c r="S60" s="0"/>
@@ -7106,11 +7106,11 @@
         <v>18</v>
       </c>
       <c r="Q63" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R63" s="0" t="inlineStr">
         <is>
-          <t>Empty</t>
+          <t>Laden</t>
         </is>
       </c>
       <c r="S63" s="0"/>
@@ -7512,11 +7512,11 @@
         <v>18</v>
       </c>
       <c r="Q67" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R67" s="0" t="inlineStr">
         <is>
-          <t>Empty</t>
+          <t>Laden</t>
         </is>
       </c>
       <c r="S67" s="0"/>
@@ -7604,11 +7604,11 @@
         <v>18</v>
       </c>
       <c r="Q68" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R68" s="0" t="inlineStr">
         <is>
-          <t>Empty</t>
+          <t>Laden</t>
         </is>
       </c>
       <c r="S68" s="0"/>
@@ -17180,11 +17180,11 @@
         <v>3</v>
       </c>
       <c r="Q166" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R166" s="0" t="inlineStr">
         <is>
-          <t>Empty</t>
+          <t>Laden</t>
         </is>
       </c>
       <c r="S166" s="0"/>
